--- a/数据整理/stocks/A股/上证主板/601100-恒立液压.xlsx
+++ b/数据整理/stocks/A股/上证主板/601100-恒立液压.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -9872,7 +9873,6 @@
           <t>九泰天富改革新动力混合C</t>
         </is>
       </c>
-      <c r="D88" t="inlineStr"/>
       <c r="E88" t="inlineStr">
         <is>
           <t>91.56</t>
@@ -9888,6 +9888,2038 @@
       </c>
       <c r="H88" t="n">
         <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H53"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>009014</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>泓德睿泽混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>157.19</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.64</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.53</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>5.5488</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>001705</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>泓德战略转型股票</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>45.10</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.81</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.36</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>2.4174</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>070001</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>嘉实成长收益混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>36.09</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>74.38</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.28</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.9056</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>011783</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>泓德睿源三年持有期灵活配置混合型证券投资基金</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>49.30</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>79.15</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.43</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.6910</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>002989</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>融通通乾研究精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>16.27</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>94.56</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>9.87</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>1.6058</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>070099</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>嘉实优质企业混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>30.83</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>93.36</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.68</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>1.4428</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>519087</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>新华优选分红混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>13.40</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>89.45</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>6.15</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.8241</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>008150</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>嘉实远见企业精选两年持有期混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>20.66</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>93.38</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.89</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.8037</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>008382</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>融通产业趋势股票</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>6.54</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>94.35</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>9.96</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.6514</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>161610</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>融通领先成长混合(LOF)A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>24.63</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>90.72</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2.37</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.5837</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>007549</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>中泰开阳价值优选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>25.06</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>72.02</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>2.27</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.5689</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>002846</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>泓德泓华灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>9.02</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>93.18</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>5.54</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.4997</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>005802</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>汇添富智能制造股票</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>11.54</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>90.93</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.90</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.4501</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>001040</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>新华策略精选股票</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>6.82</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>94.64</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>6.00</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.4092</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>011011</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>融通产业趋势精选2年封闭运作混合</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>3.95</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>88.10</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>9.61</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.3796</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>000870</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>嘉实新收益灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>6.89</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>93.59</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>5.26</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.3624</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>519156</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>新华行业轮换灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>6.72</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>93.84</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>4.10</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.2755</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>001695</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>泓德泓业灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>2.89</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>82.47</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>4.97</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.1436</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>002801</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>泓德泓信灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>2.83</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>92.73</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>4.98</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.1409</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>011437</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>中泰开阳价值优选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>5.86</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>72.02</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>2.27</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.1330</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>009015</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>泓德睿享一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>8.19</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>26.04</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>1.32</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.1081</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>005544</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>银华瑞和灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>1.44</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>94.04</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>6.23</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0897</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>008110</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>九泰科盈价值灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>4.66</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>33.58</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>1.91</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0890</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>004926</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>中航军民融合精选混合A</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>2.07</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>88.37</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>4.11</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0851</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>000066</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>诺安鸿鑫混合</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>1.02</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>87.70</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>8.15</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0831</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>004927</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>中航军民融合精选混合C</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>2.02</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>88.37</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>4.11</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0830</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>005826</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>华夏潜龙精选股票</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>1.33</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>93.85</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>5.04</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0670</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>011457</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>新华行业龙头主题股票</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>1.34</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>94.44</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>4.33</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0580</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>001880</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>长城中国智造灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>0.70</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>94.32</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>5.94</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0416</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>005618</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>融通红利机会主题精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>6.34</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>24.31</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>0.64</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0406</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>002955</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>融通新趋势灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>1.51</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>92.17</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>2.35</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0355</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>008837</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>融通通益混合</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>4.24</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>34.19</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>0.82</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0348</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>001357</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>泓德泓富灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>3.25</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>22.01</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>1.03</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0335</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>003279</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>融通沪港深智慧生活灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>1.99</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>69.58</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>1.62</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0322</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>008077</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>九泰天奕量化价值混合A</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>1.33</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>94.17</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>2.30</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0306</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>001470</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>融通通鑫灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>4.99</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>29.38</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>0.61</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0304</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>002049</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>融通新机遇灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>3.66</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>29.35</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>0.69</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0253</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>005619</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>融通红利机会主题精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>3.73</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>24.31</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>0.64</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0239</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>005977</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>中信保诚至兴灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>91.16</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>4.35</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0218</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>002605</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>融通新消费灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>4.07</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>23.55</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>0.53</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0216</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>005844</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>东方人工智能主题混合</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>0.32</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>93.91</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>4.61</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.0148</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>006603</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>嘉实互融精选股票</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>85.73</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>5.16</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.0088</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>010000</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>长城中国智造灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>94.32</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>5.94</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.0036</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>162107</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>金鹰量化精选股票（LOF）</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>91.88</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>3.38</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.0030</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>519157</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>新华行业轮换灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>93.84</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>4.10</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.0029</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>005126</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>银河量化稳进混合</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>87.14</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>2.30</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.0023</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>005978</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>中信保诚至兴灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>91.16</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>4.35</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.0022</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>960024</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>嘉实成长收益混合H</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>74.38</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>5.28</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.0021</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>009241</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>融通领先成长混合(LOF)C</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>90.72</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>2.37</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.0009</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>008137</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>九泰天奕量化价值混合C</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>94.17</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>2.30</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.0007</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>009016</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>泓德睿享一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>26.04</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>1.32</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.0007</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>001376</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>泓德泓富灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>22.01</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>1.03</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.0002</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/数据整理/stocks/A股/上证主板/601100-恒立液压.xlsx
+++ b/数据整理/stocks/A股/上证主板/601100-恒立液压.xlsx
@@ -9,6 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -11925,4 +11926,2224 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H58"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>009014</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>泓德睿泽混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>123.27</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.61</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.83</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>4.7212</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>011783</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>泓德睿源三年持有期灵活配置混合型证券投资基金</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>91.26</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>87.83</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.52</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>3.2124</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>169105</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>东方红睿华沪港深灵活配置混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>30.82</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>91.67</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>9.19</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>2.8324</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>070001</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>嘉实成长收益混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>30.92</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>74.33</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>6.07</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.8768</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>960024</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>嘉实成长收益混合H</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>30.92</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>74.33</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>6.07</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>1.8768</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>001705</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>泓德战略转型股票</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>33.32</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>92.20</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.74</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>1.5794</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>070099</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>嘉实优质企业混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>25.39</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>93.95</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>5.60</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>1.4218</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>002989</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>融通通乾研究精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>13.04</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>94.50</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>10.15</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>1.3236</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>010059</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>东方红鼎元3个月定期开放混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>21.80</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>93.79</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.67</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>1.0181</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>010275</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>嘉实优质精选混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>22.32</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>91.95</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>4.44</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.9910</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>008150</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>嘉实远见企业精选两年持有期混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>18.61</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>93.67</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>4.25</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.7909</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>519087</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>新华优选分红混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>13.06</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>88.70</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>5.83</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.7614</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>161610</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>融通领先成长混合(LOF)A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>19.62</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>89.41</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>2.36</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.4630</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>008382</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>融通产业趋势股票</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>4.50</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>93.25</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>9.77</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.4396</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>002846</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>泓德泓华灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>8.65</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>94.28</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>4.89</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.4230</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>161601</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>融通新蓝筹混合</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>15.83</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>66.06</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>2.31</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.3657</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>000870</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>嘉实新收益灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>5.80</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>93.97</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>6.14</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.3561</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>011011</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>融通产业趋势精选2年封闭运作混合</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>3.59</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>93.22</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>9.76</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.3504</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>001040</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>新华策略精选股票</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>6.01</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>94.32</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>5.38</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.3233</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>519156</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>新华行业轮换灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>5.97</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>94.97</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>4.68</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.2794</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>011093</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>永赢宏泽一年定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>26.05</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>48.11</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>0.82</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.2136</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>002801</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>泓德泓信灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>3.14</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>90.91</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>4.68</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.1470</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>009015</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>泓德睿享一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>7.55</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>25.76</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>1.43</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.1080</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>001695</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>泓德泓业灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>2.30</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>83.47</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>3.86</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0888</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>008110</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>九泰科盈价值灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>4.52</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>30.78</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>1.94</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0877</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>011444</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>创金合信瑞裕混合A</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>1.79</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>93.83</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>4.06</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0727</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>006836</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>永赢惠泽一年定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>8.94</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>47.95</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>0.79</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0706</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>011727</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>工银瑞信聚瑞混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>5.92</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>27.80</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>1.07</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0633</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>010276</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>嘉实优质精选混合C</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>1.40</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>91.95</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>4.44</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0622</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>011457</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>新华行业龙头主题股票</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>1.19</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>94.67</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>4.95</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0589</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>008136</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>九泰科盈价值灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>2.88</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>30.78</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>1.94</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0559</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>000066</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>诺安鸿鑫混合</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>0.90</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>91.07</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>5.72</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0515</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>005544</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>银华瑞和灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>94.12</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>4.68</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0468</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>002955</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>融通新趋势灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>1.89</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>90.01</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>2.08</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0393</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>005067</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>融通逆向策略灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>4.65</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>31.73</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>0.77</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0358</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>001470</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>融通通鑫灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>7.28</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>21.42</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>0.48</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0349</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>002605</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>融通新消费灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>5.63</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>25.24</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>0.62</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0349</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>003279</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>融通沪港深智慧生活灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>1.88</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>75.64</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>1.85</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0348</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>920008</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>中金进取回报灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>4.69</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>26.79</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>0.74</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0347</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>010395</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>融通稳健添盈灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>5.51</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>24.10</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0320</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>005618</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>融通红利机会主题精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>5.50</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>24.76</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>0.57</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.0314</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>006084</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>融通研究优选混合</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>1.43</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>86.15</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>2.19</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.0313</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>010646</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>融通价值趋势混合A</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>1.31</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>94.31</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>2.21</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.0290</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>011728</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>工银瑞信聚瑞混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>2.30</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>27.80</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>1.07</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.0246</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>009270</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>融通逆向策略灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>3.08</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>31.73</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>0.77</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.0237</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>007137</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>鹏扬元合量化大盘优选股票A</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>92.70</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>4.24</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.0212</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>005619</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>融通红利机会主题精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>3.59</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>24.76</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>0.57</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.0205</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>010396</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>融通稳健添盈灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>3.01</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>24.10</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.0175</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>010647</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>融通价值趋势混合C</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>0.65</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>94.31</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>2.21</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.0144</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>007138</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>鹏扬元合量化大盘优选股票C</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>0.30</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>92.70</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>4.24</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.0127</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>920928</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>中金进取回报灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>1.59</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>26.79</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>0.74</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.0118</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>260117</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>景顺长城支柱产业混合</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>0.31</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>82.05</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>2.74</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.0085</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>006603</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>嘉实互融精选股票</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>89.18</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>3.62</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.0054</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>519157</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>新华行业轮换灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>94.97</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>4.68</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.0028</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>009016</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>泓德睿享一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>25.76</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>1.43</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.0010</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>009241</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>融通领先成长混合(LOF)C</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>89.41</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>2.36</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.0007</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>011445</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>创金合信瑞裕混合C</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>93.83</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>4.06</t>
+        </is>
+      </c>
+      <c r="G58" t="n">
+        <v>0</v>
+      </c>
+      <c r="H58" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/601100-恒立液压.xlsx
+++ b/数据整理/stocks/A股/上证主板/601100-恒立液压.xlsx
@@ -10,6 +10,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -14146,4 +14147,104 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>57</v>
+      </c>
+      <c r="D2" t="n">
+        <v>27.04</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>52</v>
+      </c>
+      <c r="D3" t="n">
+        <v>21.91</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>87</v>
+      </c>
+      <c r="D4" t="n">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>159</v>
+      </c>
+      <c r="D5" t="n">
+        <v>74.69</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/601100-恒立液压.xlsx
+++ b/数据整理/stocks/A股/上证主板/601100-恒立液压.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -14155,7 +14156,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H44"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -14166,17 +14167,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -14186,14 +14207,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>57</v>
-      </c>
-      <c r="D2" t="n">
-        <v>27.04</v>
+          <t>009014</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>泓德睿泽混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>116.63</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.02</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.91</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>4.5602</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="3">
@@ -14202,14 +14245,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>52</v>
-      </c>
-      <c r="D3" t="n">
-        <v>21.91</v>
+          <t>011783</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>泓德睿源三年持有期灵活配置混合型证券投资基金</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>90.97</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>88.81</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.62</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>3.2931</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="4">
@@ -14218,14 +14283,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>87</v>
-      </c>
-      <c r="D4" t="n">
-        <v>24</v>
+          <t>169105</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>东方红睿华沪港深灵活配置混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>29.37</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>93.88</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>9.03</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>2.6521</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="5">
@@ -14234,13 +14321,1633 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>070001</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>嘉实成长收益混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>28.61</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>73.33</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>6.34</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.8139</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>001705</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>泓德战略转型股票</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>32.15</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>91.52</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.74</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>1.5239</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>010059</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>东方红鼎元3个月定期开放混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>27.25</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>89.70</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>5.44</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>1.4824</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>070099</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>嘉实优质企业混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>22.02</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>93.58</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>5.14</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>1.1318</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>002989</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>融通通乾研究精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>10.66</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>94.21</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>9.69</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>1.0330</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>008150</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>嘉实远见企业精选两年持有期混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>18.18</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>93.67</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.21</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.7654</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>310308</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>申万菱信盛利精选混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>14.72</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>72.06</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.33</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.4902</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>002846</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>泓德泓华灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>8.99</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>93.36</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>4.75</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.4270</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>161610</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>融通领先成长混合(LOF)A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>18.99</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>91.02</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>2.18</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.4140</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>161601</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>融通新蓝筹混合</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>15.17</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>68.48</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>2.33</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.3535</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>011011</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>融通产业趋势精选2年封闭运作混合</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>3.66</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>94.00</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>9.54</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.3492</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>008382</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>融通产业趋势股票</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>3.42</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>94.21</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>9.55</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.3266</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>000870</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>嘉实新收益灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>5.13</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>94.03</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>5.30</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.2719</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>002801</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>泓德泓信灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>3.45</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>90.72</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>4.07</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.1404</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>001695</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>泓德泓业灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>2.89</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>80.20</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>3.83</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.1107</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>008110</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>九泰科盈价值灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>3.21</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>33.66</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>1.99</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0639</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>008136</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>九泰科盈价值灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>2.80</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>33.66</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>1.99</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0557</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>011595</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>融通核心趋势混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>2.34</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>94.49</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>2.24</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0524</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>009015</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>泓德睿享一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>4.81</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>26.09</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>1.07</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0515</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>005544</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>银华瑞和灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0.96</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>91.65</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>4.71</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0452</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>000066</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>诺安鸿鑫混合</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>0.93</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>92.43</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>4.64</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0432</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>002605</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>融通新消费灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>5.08</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>29.00</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>0.68</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0345</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>001470</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>融通通鑫灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>6.34</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>25.35</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>0.54</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0342</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>002049</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>融通新机遇灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>7.03</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>21.03</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>0.48</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0337</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>003279</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>融通沪港深智慧生活灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>1.56</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>87.81</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>2.04</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0318</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>008837</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>融通通益混合</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>7.75</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>20.47</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>0.40</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0310</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>005618</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>融通红利机会主题精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>4.43</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>33.36</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>0.70</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0310</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>002955</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>融通新趋势灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>1.37</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>93.77</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>2.25</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0308</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>005619</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>融通红利机会主题精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>3.03</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>33.36</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>0.70</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0212</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>010646</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>融通价值趋势混合A</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>0.98</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>94.27</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>2.12</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0208</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>010395</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>融通稳健添盈灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>3.38</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>29.59</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>0.57</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0193</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>006084</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>融通研究优选混合</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>0.84</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>88.32</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0168</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>010396</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>融通稳健添盈灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>1.73</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>29.59</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>0.57</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0099</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>260117</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>景顺长城支柱产业混合</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>0.30</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>88.13</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>2.72</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0082</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>006603</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>嘉实互融精选股票</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>85.67</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>4.33</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0074</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>010647</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>融通价值趋势混合C</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>0.32</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>94.27</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>2.12</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0068</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>011596</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>融通核心趋势混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>0.30</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>94.49</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>2.24</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0067</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>009016</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>泓德睿享一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>26.09</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>1.07</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.0009</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>009241</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>融通领先成长混合(LOF)C</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>91.02</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>2.18</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.0007</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>960024</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>嘉实成长收益混合H</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>73.33</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>6.34</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.0006</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>43</v>
+      </c>
+      <c r="D2" t="n">
+        <v>21.8</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>57</v>
+      </c>
+      <c r="D3" t="n">
+        <v>27.04</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>52</v>
+      </c>
+      <c r="D4" t="n">
+        <v>21.91</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>87</v>
+      </c>
+      <c r="D5" t="n">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>159</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>74.69</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/601100-恒立液压.xlsx
+++ b/数据整理/stocks/A股/上证主板/601100-恒立液压.xlsx
@@ -11,7 +11,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -15846,7 +15847,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:H26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -15857,17 +15858,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -15877,14 +15898,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>43</v>
-      </c>
-      <c r="D2" t="n">
-        <v>21.8</v>
+          <t>910004</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>东方红启恒三年持有期混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>118.66</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>86.48</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>6.15</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>7.2976</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="3">
@@ -15893,14 +15936,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>57</v>
-      </c>
-      <c r="D3" t="n">
-        <v>27.04</v>
+          <t>011724</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>东方红启恒三年持有期混合型证券投资基金B</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>110.24</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>86.48</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>6.15</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>6.7798</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="4">
@@ -15909,14 +15974,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>52</v>
-      </c>
-      <c r="D4" t="n">
-        <v>21.91</v>
+          <t>009014</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>泓德睿泽混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>85.92</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>93.52</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.38</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>2.9041</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="5">
@@ -15925,14 +16012,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>87</v>
-      </c>
-      <c r="D5" t="n">
-        <v>24</v>
+          <t>010059</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>东方红鼎元3个月定期开放混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>27.56</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>89.58</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>6.68</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.8410</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="6">
@@ -15941,13 +16050,927 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>169105</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>东方红睿华沪港深灵活配置混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>20.95</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>86.61</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>8.12</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>1.7011</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>070001</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>嘉实成长收益混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>24.07</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>72.54</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.80</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>1.1554</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>001705</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>泓德战略转型股票</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>22.82</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>93.94</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.25</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.9698</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>910009</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>东方红启程三年持有期混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>8.06</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>87.95</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>6.16</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.4965</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>008150</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>嘉实远见企业精选两年持有期混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>14.46</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>91.85</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.37</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.4873</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>002989</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>融通通乾研究精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>6.13</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>94.84</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>6.00</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.3678</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>002846</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>泓德泓华灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>7.01</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>93.24</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.87</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.2713</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>011011</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>融通产业趋势精选2年封闭运作混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>3.07</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>94.85</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>5.93</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.1821</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>000870</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>嘉实新收益灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>4.17</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>91.30</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>4.15</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.1731</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>008382</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>融通产业趋势股票</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>2.39</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>94.68</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>5.96</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.1424</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>002801</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>泓德泓信灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>2.53</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>92.18</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>3.52</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0891</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>008110</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>九泰科盈价值灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>3.52</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>34.14</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>1.53</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0539</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>011727</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>工银瑞信聚瑞混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>3.46</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>29.56</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>1.28</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0443</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>009015</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>泓德睿享一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>3.41</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>24.56</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>1.25</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0426</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>008136</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>九泰科盈价值灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>2.45</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>34.14</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>1.53</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0375</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>910011</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>东方红启瑞三年持有混合A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>48.85</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>1.98</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0097</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>006603</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>嘉实互融精选股票</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>85.91</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>4.14</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0058</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>011728</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>工银瑞信聚瑞混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>29.56</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>1.28</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0022</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>011312</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>东方红启瑞三年持有混合B</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>48.85</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>1.98</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0022</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>009016</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>泓德睿享一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>24.56</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>1.25</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0009</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>960024</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>嘉实成长收益混合H</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>72.54</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>4.80</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0005</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>25</v>
+      </c>
+      <c r="D2" t="n">
+        <v>25.06</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>43</v>
+      </c>
+      <c r="D3" t="n">
+        <v>21.8</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>57</v>
+      </c>
+      <c r="D4" t="n">
+        <v>27.04</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>52</v>
+      </c>
+      <c r="D5" t="n">
+        <v>21.91</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>87</v>
+      </c>
+      <c r="D6" t="n">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C6" t="n">
+      <c r="C7" t="n">
         <v>159</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D7" t="n">
         <v>74.69</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/601100-恒立液压.xlsx
+++ b/数据整理/stocks/A股/上证主板/601100-恒立液压.xlsx
@@ -12,7 +12,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16853,7 +16854,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:H40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -16864,17 +16865,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -16884,14 +16905,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>25</v>
-      </c>
-      <c r="D2" t="n">
-        <v>25.06</v>
+          <t>910004</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>东方红启恒三年持有期混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>130.50</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>89.39</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>6.68</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>8.7174</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="3">
@@ -16900,14 +16943,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>43</v>
-      </c>
-      <c r="D3" t="n">
-        <v>21.8</v>
+          <t>011724</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>东方红启恒三年持有期混合型证券投资基金B</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>121.37</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>89.39</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>6.68</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>8.1075</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="4">
@@ -16916,14 +16981,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>57</v>
-      </c>
-      <c r="D4" t="n">
-        <v>27.04</v>
+          <t>009014</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>泓德睿泽混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>93.23</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>93.05</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.70</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>3.4495</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="5">
@@ -16932,14 +17019,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>52</v>
-      </c>
-      <c r="D5" t="n">
-        <v>21.91</v>
+          <t>012840</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>东方红智华三年持有混合C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>33.93</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>85.88</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>7.97</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>2.7042</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="6">
@@ -16948,14 +17057,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>87</v>
-      </c>
-      <c r="D6" t="n">
-        <v>24</v>
+          <t>161606</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>融通行业景气混合A/B</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>26.41</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>94.84</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>9.62</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>2.5406</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="7">
@@ -16964,13 +17095,1428 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>010059</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>东方红鼎元3个月定期开放混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>29.15</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>90.43</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>7.68</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>2.2387</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>169105</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>东方红睿华沪港深灵活配置混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>22.39</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>92.01</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>8.48</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>1.8987</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>070001</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>嘉实成长收益混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>26.60</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>74.32</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.14</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>1.1012</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>001705</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>泓德战略转型股票</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>24.37</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>92.64</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.21</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>1.0260</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>070099</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>嘉实优质企业混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>19.86</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>92.40</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.52</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.6991</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>910009</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>东方红启程三年持有期混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>8.72</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>89.50</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>7.03</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.6130</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>008150</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>嘉实远见企业精选两年持有期混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>16.34</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>92.40</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.53</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.5768</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>002989</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>融通通乾研究精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>5.15</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>94.61</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>9.23</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.4753</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>009277</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>融通行业景气混合C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>3.42</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>94.84</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>9.62</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.3290</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>002846</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>泓德泓华灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>7.92</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>92.66</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>4.07</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.3223</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>002738</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>泓德裕康债券A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>39.94</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>20.21</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>0.80</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.3195</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>011011</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>融通产业趋势精选2年封闭运作混合</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>3.20</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>94.72</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>9.23</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.2954</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>008382</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>融通产业趋势股票</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>2.40</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>94.59</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>9.27</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.2225</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>000870</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>嘉实新收益灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>4.67</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>92.04</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>4.40</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.2055</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>012826</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>工银聚宁9个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>10.99</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>26.77</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>1.16</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.1275</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>002801</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>泓德泓信灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>2.78</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>92.63</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>3.81</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.1059</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>008263</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>东方红品质优选两年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>7.53</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>27.77</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>1.15</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0866</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>008110</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>九泰科盈价值灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>3.63</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>34.82</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>1.76</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0639</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>010746</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>富安达长三角区域主题混合</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>1.10</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>93.58</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>4.80</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0528</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>009015</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>泓德睿享一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>3.19</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>29.40</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>1.47</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0469</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>008136</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>九泰科盈价值灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>2.56</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>34.82</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>1.76</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0451</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>910011</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>东方红启瑞三年持有混合A</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>83.97</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>8.11</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0422</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>006121</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>华安双核驱动混合</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>1.04</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>94.52</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>3.50</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0364</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>009789</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>富安达科技创新混合</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>93.06</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>4.19</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0230</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>006573</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>人保行业轮动混合A</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>1.02</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>82.58</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>2.02</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0206</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>000757</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>华富智慧城市灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>0.53</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>87.04</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>2.69</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0143</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>011312</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>东方红启瑞三年持有混合B</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>83.97</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>8.11</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0097</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>012827</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>工银聚宁9个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>0.76</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>26.77</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>1.16</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0088</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>002739</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>泓德裕康债券C</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>0.78</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>20.21</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>0.80</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0062</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>006574</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>人保行业轮动混合C</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>0.19</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>82.58</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>2.02</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0038</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>009016</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>泓德睿享一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>29.40</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>1.47</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0010</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>960024</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>嘉实成长收益混合H</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>74.32</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>4.14</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0008</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>010443</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>东方红启程三年持有期混合型证券投资基金B</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>89.50</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>7.03</t>
+        </is>
+      </c>
+      <c r="G39" t="n">
+        <v>0</v>
+      </c>
+      <c r="H39" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>013504</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>华安双核驱动混合C</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>94.52</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>3.50</t>
+        </is>
+      </c>
+      <c r="G40" t="n">
+        <v>0</v>
+      </c>
+      <c r="H40" t="n">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>39</v>
+      </c>
+      <c r="D2" t="n">
+        <v>36.54</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>25</v>
+      </c>
+      <c r="D3" t="n">
+        <v>25.06</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>43</v>
+      </c>
+      <c r="D4" t="n">
+        <v>21.8</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>57</v>
+      </c>
+      <c r="D5" t="n">
+        <v>27.04</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>52</v>
+      </c>
+      <c r="D6" t="n">
+        <v>21.91</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>87</v>
+      </c>
+      <c r="D7" t="n">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C7" t="n">
+      <c r="C8" t="n">
         <v>159</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D8" t="n">
         <v>74.69</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/601100-恒立液压.xlsx
+++ b/数据整理/stocks/A股/上证主板/601100-恒立液压.xlsx
@@ -7,13 +7,14 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -457,7 +458,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,14 +489,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>39</v>
+        <v>15</v>
       </c>
       <c r="D2" t="n">
-        <v>36.54</v>
+        <v>15.86</v>
       </c>
     </row>
     <row r="3">
@@ -504,14 +505,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>25</v>
+        <v>39</v>
       </c>
       <c r="D3" t="n">
-        <v>25.06</v>
+        <v>36.54</v>
       </c>
     </row>
     <row r="4">
@@ -520,14 +521,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>43</v>
+        <v>25</v>
       </c>
       <c r="D4" t="n">
-        <v>21.8</v>
+        <v>25.06</v>
       </c>
     </row>
     <row r="5">
@@ -536,14 +537,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>57</v>
+        <v>43</v>
       </c>
       <c r="D5" t="n">
-        <v>27.04</v>
+        <v>21.8</v>
       </c>
     </row>
     <row r="6">
@@ -552,14 +553,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="D6" t="n">
-        <v>21.91</v>
+        <v>27.04</v>
       </c>
     </row>
     <row r="7">
@@ -568,14 +569,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>87</v>
+        <v>52</v>
       </c>
       <c r="D7" t="n">
-        <v>24</v>
+        <v>21.91</v>
       </c>
     </row>
     <row r="8">
@@ -584,13 +585,29 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>87</v>
+      </c>
+      <c r="D8" t="n">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C8" t="n">
+      <c r="C9" t="n">
         <v>159</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D9" t="n">
         <v>74.69</v>
       </c>
     </row>
@@ -600,6 +617,632 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>011724</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>东方红启恒三年持有混合B</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>107.47</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>88.87</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>7.00</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>7.5229</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>012839</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>东方红智华三年持有混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>29.38</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>91.62</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>8.91</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>2.6178</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>010059</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>东方红鼎元3个月定期开放混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>28.07</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>88.00</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>6.90</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.9368</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>169105</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>东方红睿华沪港深混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>18.58</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>92.58</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>9.33</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.7335</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>450001</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>国富中国收益混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>20.62</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>63.10</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.74</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.7712</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>910004</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>东方红启恒三年持有混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>7.82</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>88.87</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>7.00</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.5474</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>004278</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>东方红智逸沪港深定期开放混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>26.55</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>31.75</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>1.23</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.3266</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>014573</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>东方红锦弘甄选两年持有期混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>9.72</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>32.72</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>0.92</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0894</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>008263</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>东方红品质优选两年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>7.18</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>25.89</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>0.98</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0704</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>012840</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>东方红智华三年持有混合C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.66</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>91.62</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>8.91</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0588</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>002783</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>东方红价值精选混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>6.33</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>23.57</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>0.87</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0551</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>001202</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>东方红领先精选混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>6.11</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>27.14</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>0.89</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0544</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>002784</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>东方红价值精选混合C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>5.10</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>23.57</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>0.87</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0444</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>008136</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>九泰科盈价值灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>1.10</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>38.61</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>1.48</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0163</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>008110</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>九泰科盈价值灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.99</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>38.61</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>1.48</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0147</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2128,7 +2771,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3134,7 +3777,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4824,7 +5467,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -7044,7 +7687,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -9076,7 +9719,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -12431,7 +13074,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
